--- a/Tests/Ti-in-Quartz/dbimport/Thomas&Wark.xlsx
+++ b/Tests/Ti-in-Quartz/dbimport/Thomas&Wark.xlsx
@@ -179,7 +179,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -209,34 +209,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Cumberland AMT;Cumberland;Courier New;Liberation Mono;Nimbus Mono L;DejaVu Sans Mono;Courier;Lucida Sans Typewriter;Lucida Typewriter;Monaco;Monospaced"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF008080"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF008080"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -291,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,39 +285,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,15 +318,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>290880</xdr:colOff>
+      <xdr:colOff>317880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>528480</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:colOff>555120</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -380,8 +341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3301920" y="7162920"/>
-          <a:ext cx="4300920" cy="272520"/>
+          <a:off x="3328920" y="7153920"/>
+          <a:ext cx="4300560" cy="272160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -404,7 +365,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J33"/>
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -500,49 +461,53 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="3" t="n">
         <v>0.0004771</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="2" t="n">
         <v>1.023E-005</v>
       </c>
       <c r="T2" s="4" t="s">
@@ -550,49 +515,53 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R3" s="3" t="n">
         <v>0.001021</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3" s="2" t="n">
         <v>5.674E-006</v>
       </c>
       <c r="T3" s="4" t="s">
@@ -600,49 +569,53 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="n">
         <v>725</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R4" s="3" t="n">
         <v>0.000344</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" s="2" t="n">
         <v>4.175E-006</v>
       </c>
       <c r="T4" s="4" t="s">
@@ -650,49 +623,53 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R5" s="3" t="n">
         <v>0.0003852</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="2" t="n">
         <v>2.385E-006</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -700,49 +677,53 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R6" s="3" t="n">
         <v>4.77E-005</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="2" t="n">
         <v>7.093E-006</v>
       </c>
       <c r="T6" s="4" t="s">
@@ -750,49 +731,53 @@
       </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="6" t="n">
+      <c r="H7" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="3" t="n">
         <v>0.0001298</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="S7" s="2" t="n">
         <v>6.351E-006</v>
       </c>
       <c r="T7" s="4" t="s">
@@ -800,49 +785,53 @@
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="n">
         <v>700</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="6" t="n">
+      <c r="H8" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="3" t="n">
         <v>2.23E-005</v>
       </c>
-      <c r="S8" s="5" t="n">
+      <c r="S8" s="2" t="n">
         <v>8.16E-007</v>
       </c>
       <c r="T8" s="4" t="s">
@@ -850,49 +839,53 @@
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="n">
         <v>940</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="6" t="n">
+      <c r="H9" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="3" t="n">
         <v>0.00021</v>
       </c>
-      <c r="S9" s="5" t="n">
+      <c r="S9" s="2" t="n">
         <v>6.035E-006</v>
       </c>
       <c r="T9" s="4" t="s">
@@ -900,49 +893,53 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="n">
         <v>875</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="0" t="s">
+      <c r="H10" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="3" t="n">
         <v>0.0001211</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="2" t="n">
         <v>6.06E-006</v>
       </c>
       <c r="T10" s="4" t="s">
@@ -950,49 +947,53 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="n">
         <v>775</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="H11" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R11" s="3" t="n">
         <v>5.02E-005</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="2" t="n">
         <v>2.088E-006</v>
       </c>
       <c r="T11" s="4" t="s">
@@ -1000,51 +1001,53 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="3" t="n">
         <v>3.53E-005</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="2" t="n">
         <v>1.358E-006</v>
       </c>
       <c r="T12" s="4" t="s">
@@ -1052,51 +1055,53 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="n">
         <v>825</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R13" s="3" t="n">
         <v>7.07E-005</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" s="2" t="n">
         <v>2.193E-006</v>
       </c>
       <c r="T13" s="4" t="s">
@@ -1104,51 +1109,53 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="H14" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="3" t="n">
         <v>7.96E-005</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="2" t="n">
         <v>4.369E-006</v>
       </c>
       <c r="T14" s="4" t="s">
@@ -1156,49 +1163,53 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="n">
         <v>875</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="0" t="s">
+      <c r="H15" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R15" s="3" t="n">
         <v>5.77E-005</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="2" t="n">
         <v>1.556E-006</v>
       </c>
       <c r="T15" s="4" t="s">
@@ -1206,49 +1217,53 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2" t="n">
         <v>940</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="H16" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="3" t="n">
         <v>0.000125</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16" s="2" t="n">
         <v>2.378E-006</v>
       </c>
       <c r="T16" s="4" t="s">
@@ -1256,49 +1271,53 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="H17" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="0" t="s">
+        <v>1E-005</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R17" s="3" t="n">
         <v>2.01E-005</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17" s="2" t="n">
         <v>2.337E-006</v>
       </c>
       <c r="T17" s="4" t="s">
@@ -1306,269 +1325,269 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="n">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="n">
         <v>775</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="H18" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R18" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="3" t="n">
         <v>2.67E-005</v>
       </c>
-      <c r="S18" s="8" t="n">
+      <c r="S18" s="2" t="n">
         <v>1.974E-006</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" s="10" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
+    <row r="19" s="6" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="n">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="n">
         <v>850</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="H19" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="11" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="9" t="n">
+      <c r="H19" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="3" t="n">
         <v>6.09E-005</v>
       </c>
-      <c r="S19" s="8" t="n">
+      <c r="S19" s="2" t="n">
         <v>2.2E-006</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="10" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+    <row r="20" s="6" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="n">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="n">
         <v>825</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="H20" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="11" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" s="9" t="n">
+      <c r="H20" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="3" t="n">
         <v>3.06E-005</v>
       </c>
-      <c r="S20" s="8" t="n">
+      <c r="S20" s="2" t="n">
         <v>4.72E-007</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+    <row r="21" s="6" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="n">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H21" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="11" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R21" s="9" t="n">
+      <c r="H21" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="3" t="n">
         <v>2.76313801195405E-005</v>
       </c>
-      <c r="S21" s="8" t="n">
+      <c r="S21" s="2" t="n">
         <v>7.53583094169287E-007</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" s="10" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+    <row r="22" s="6" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="n">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H22" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="11" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="9" t="n">
+      <c r="H22" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="3" t="n">
         <v>3.89346937483205E-005</v>
       </c>
-      <c r="S22" s="8" t="n">
+      <c r="S22" s="2" t="n">
         <v>5.02383145139619E-006</v>
       </c>
       <c r="T22" s="4" t="s">
@@ -1576,53 +1595,53 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="n">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="n">
         <v>700</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H23" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="3" t="n">
         <v>8.66570255360476E-005</v>
       </c>
-      <c r="S23" s="8" t="n">
+      <c r="S23" s="2" t="n">
         <v>2.88856751786825E-006</v>
       </c>
       <c r="T23" s="4" t="s">
@@ -1630,53 +1649,53 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="n">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="n">
         <v>700</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H24" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="H24" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="3" t="n">
         <v>7.53547728161031E-005</v>
       </c>
-      <c r="S24" s="8" t="n">
+      <c r="S24" s="2" t="n">
         <v>4.14451250488567E-006</v>
       </c>
       <c r="T24" s="4" t="s">
@@ -1684,53 +1703,53 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="n">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H25" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="3" t="n">
         <v>0.000129352157352636</v>
       </c>
-      <c r="S25" s="8" t="n">
+      <c r="S25" s="2" t="n">
         <v>7.53507712733803E-006</v>
       </c>
       <c r="T25" s="4" t="s">
@@ -1738,53 +1757,53 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="n">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H26" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="3" t="n">
         <v>0.000175810432993096</v>
       </c>
-      <c r="S26" s="8" t="n">
+      <c r="S26" s="2" t="n">
         <v>3.13947201773387E-006</v>
       </c>
       <c r="T26" s="4" t="s">
@@ -1792,53 +1811,53 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="n">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="n">
         <v>875</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H27" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="3" t="n">
         <v>0.000332732672834299</v>
       </c>
-      <c r="S27" s="8" t="n">
+      <c r="S27" s="2" t="n">
         <v>1.30581879150064E-005</v>
       </c>
       <c r="T27" s="4" t="s">
@@ -1846,53 +1865,53 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="n">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="n">
         <v>850</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H28" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="3" t="n">
         <v>0.000313904561625149</v>
       </c>
-      <c r="S28" s="8" t="n">
+      <c r="S28" s="2" t="n">
         <v>8.53820407620406E-006</v>
       </c>
       <c r="T28" s="4" t="s">
@@ -1900,53 +1919,53 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="n">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="n">
         <v>850</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H29" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R29" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="3" t="n">
         <v>0.000288799328436401</v>
       </c>
-      <c r="S29" s="8" t="n">
+      <c r="S29" s="2" t="n">
         <v>6.65494104657795E-006</v>
       </c>
       <c r="T29" s="4" t="s">
@@ -1954,53 +1973,53 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="n">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G30" s="8" t="n">
+      <c r="G30" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H30" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R30" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="3" t="n">
         <v>0.000410548134299484</v>
       </c>
-      <c r="S30" s="8" t="n">
+      <c r="S30" s="2" t="n">
         <v>3.38984698045445E-006</v>
       </c>
       <c r="T30" s="4" t="s">
@@ -2008,53 +2027,53 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="n">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="n">
         <v>950</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H31" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R31" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="3" t="n">
         <v>0.000518465989450182</v>
       </c>
-      <c r="S31" s="8" t="n">
+      <c r="S31" s="2" t="n">
         <v>1.93326301150915E-005</v>
       </c>
       <c r="T31" s="4" t="s">
@@ -2062,53 +2081,53 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="8" t="n">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H32" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="3" t="n">
         <v>0.000655212675065719</v>
       </c>
-      <c r="S32" s="8" t="n">
+      <c r="S32" s="2" t="n">
         <v>6.77806215585227E-006</v>
       </c>
       <c r="T32" s="4" t="s">
@@ -2116,53 +2135,53 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="8" t="n">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H33" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="H33" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R33" s="9" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="3" t="n">
         <v>0.000660230202137926</v>
       </c>
-      <c r="S33" s="8" t="n">
+      <c r="S33" s="2" t="n">
         <v>5.02076199344431E-006</v>
       </c>
       <c r="T33" s="4" t="s">
@@ -2189,7 +2208,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:J33 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2198,67 +2217,67 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="n">
+      <c r="A1" s="2" t="n">
         <v>2.2E-005</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="2" t="n">
         <v>3.1E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="2" t="n">
         <v>6.9E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="2" t="n">
         <v>6E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="2" t="n">
         <v>0.000103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="2" t="n">
         <v>0.00014</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="2" t="n">
         <v>0.000265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="2" t="n">
         <v>0.00025</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="2" t="n">
         <v>0.00023</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="2" t="n">
         <v>0.000327</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="2" t="n">
         <v>0.000413</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="2" t="n">
         <v>0.000522</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="2" t="n">
         <v>0.000526</v>
       </c>
     </row>

--- a/Tests/Ti-in-Quartz/dbimport/Thomas&Wark.xlsx
+++ b/Tests/Ti-in-Quartz/dbimport/Thomas&Wark.xlsx
@@ -179,7 +179,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -209,15 +209,34 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <name val="Cumberland AMT;Cumberland;Courier New;Liberation Mono;Nimbus Mono L;DejaVu Sans Mono;Courier;Lucida Sans Typewriter;Lucida Typewriter;Monaco;Monospaced"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008080"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF008080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -272,7 +291,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,19 +304,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,15 +357,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>290880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>555120</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:colOff>528480</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -341,8 +380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3328920" y="7153920"/>
-          <a:ext cx="4300560" cy="272160"/>
+          <a:off x="3301920" y="7162920"/>
+          <a:ext cx="4300920" cy="272520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -365,7 +404,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -461,53 +500,49 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="3" t="n">
         <v>0.0004771</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="0" t="n">
         <v>1.023E-005</v>
       </c>
       <c r="T2" s="4" t="s">
@@ -515,53 +550,49 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
       <c r="F3" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R3" s="3" t="n">
         <v>0.001021</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="0" t="n">
         <v>5.674E-006</v>
       </c>
       <c r="T3" s="4" t="s">
@@ -569,53 +600,49 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
       <c r="F4" s="2" t="n">
         <v>725</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R4" s="3" t="n">
         <v>0.000344</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="0" t="n">
         <v>4.175E-006</v>
       </c>
       <c r="T4" s="4" t="s">
@@ -623,53 +650,49 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R5" s="3" t="n">
         <v>0.0003852</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="0" t="n">
         <v>2.385E-006</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -677,53 +700,49 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
       <c r="F6" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R6" s="3" t="n">
         <v>4.77E-005</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="0" t="n">
         <v>7.093E-006</v>
       </c>
       <c r="T6" s="4" t="s">
@@ -731,53 +750,49 @@
       </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
       <c r="F7" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="5" t="n">
         <v>15000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="3" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="6" t="n">
         <v>0.0001298</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="S7" s="5" t="n">
         <v>6.351E-006</v>
       </c>
       <c r="T7" s="4" t="s">
@@ -785,53 +800,49 @@
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
       <c r="F8" s="2" t="n">
         <v>700</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="5" t="n">
         <v>15000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="3" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="6" t="n">
         <v>2.23E-005</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="5" t="n">
         <v>8.16E-007</v>
       </c>
       <c r="T8" s="4" t="s">
@@ -839,53 +850,49 @@
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
       <c r="F9" s="2" t="n">
         <v>940</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="5" t="n">
         <v>15000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="3" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="6" t="n">
         <v>0.00021</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="5" t="n">
         <v>6.035E-006</v>
       </c>
       <c r="T9" s="4" t="s">
@@ -893,53 +900,49 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
       <c r="F10" s="2" t="n">
         <v>875</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="3" t="n">
         <v>0.0001211</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="0" t="n">
         <v>6.06E-006</v>
       </c>
       <c r="T10" s="4" t="s">
@@ -947,53 +950,49 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
       <c r="F11" s="2" t="n">
         <v>775</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R11" s="3" t="n">
         <v>5.02E-005</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="0" t="n">
         <v>2.088E-006</v>
       </c>
       <c r="T11" s="4" t="s">
@@ -1001,53 +1000,51 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="3" t="n">
         <v>3.53E-005</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="0" t="n">
         <v>1.358E-006</v>
       </c>
       <c r="T12" s="4" t="s">
@@ -1055,53 +1052,51 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="2" t="n">
         <v>825</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R13" s="3" t="n">
         <v>7.07E-005</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="0" t="n">
         <v>2.193E-006</v>
       </c>
       <c r="T13" s="4" t="s">
@@ -1109,53 +1104,51 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="3" t="n">
         <v>7.96E-005</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="0" t="n">
         <v>4.369E-006</v>
       </c>
       <c r="T14" s="4" t="s">
@@ -1163,53 +1156,49 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
       <c r="F15" s="2" t="n">
         <v>875</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R15" s="3" t="n">
         <v>5.77E-005</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="S15" s="0" t="n">
         <v>1.556E-006</v>
       </c>
       <c r="T15" s="4" t="s">
@@ -1217,53 +1206,49 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
       <c r="F16" s="2" t="n">
         <v>940</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="3" t="n">
         <v>0.000125</v>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="0" t="n">
         <v>2.378E-006</v>
       </c>
       <c r="T16" s="4" t="s">
@@ -1271,53 +1256,49 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
       <c r="F17" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R17" s="3" t="n">
         <v>2.01E-005</v>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="S17" s="0" t="n">
         <v>2.337E-006</v>
       </c>
       <c r="T17" s="4" t="s">
@@ -1325,269 +1306,269 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="n">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="n">
         <v>775</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="8" t="n">
         <v>20000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R18" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="9" t="n">
         <v>2.67E-005</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="8" t="n">
         <v>1.974E-006</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="19" s="10" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="n">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="n">
         <v>850</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="8" t="n">
         <v>20000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="3" t="n">
+      <c r="H19" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="9" t="n">
         <v>6.09E-005</v>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="8" t="n">
         <v>2.2E-006</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" s="10" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="n">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="n">
         <v>825</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="8" t="n">
         <v>20000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" s="3" t="n">
+      <c r="H20" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="9" t="n">
         <v>3.06E-005</v>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="8" t="n">
         <v>4.72E-007</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" s="10" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="n">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="n">
         <v>600</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R21" s="3" t="n">
+      <c r="H21" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="9" t="n">
         <v>2.76313801195405E-005</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="8" t="n">
         <v>7.53583094169287E-007</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" s="10" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="n">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="n">
         <v>650</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="3" t="n">
+      <c r="H22" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="9" t="n">
         <v>3.89346937483205E-005</v>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="8" t="n">
         <v>5.02383145139619E-006</v>
       </c>
       <c r="T22" s="4" t="s">
@@ -1595,53 +1576,53 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="n">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="n">
         <v>700</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="9" t="n">
         <v>8.66570255360476E-005</v>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="8" t="n">
         <v>2.88856751786825E-006</v>
       </c>
       <c r="T23" s="4" t="s">
@@ -1649,53 +1630,53 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="n">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="n">
         <v>700</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="9" t="n">
         <v>7.53547728161031E-005</v>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="8" t="n">
         <v>4.14451250488567E-006</v>
       </c>
       <c r="T24" s="4" t="s">
@@ -1703,53 +1684,53 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="n">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="9" t="n">
         <v>0.000129352157352636</v>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="8" t="n">
         <v>7.53507712733803E-006</v>
       </c>
       <c r="T25" s="4" t="s">
@@ -1757,53 +1738,53 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="n">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="n">
         <v>800</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="9" t="n">
         <v>0.000175810432993096</v>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="8" t="n">
         <v>3.13947201773387E-006</v>
       </c>
       <c r="T26" s="4" t="s">
@@ -1811,53 +1792,53 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="n">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="n">
         <v>875</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="9" t="n">
         <v>0.000332732672834299</v>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="8" t="n">
         <v>1.30581879150064E-005</v>
       </c>
       <c r="T27" s="4" t="s">
@@ -1865,53 +1846,53 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="n">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="n">
         <v>850</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="9" t="n">
         <v>0.000313904561625149</v>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="8" t="n">
         <v>8.53820407620406E-006</v>
       </c>
       <c r="T28" s="4" t="s">
@@ -1919,53 +1900,53 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="n">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="n">
         <v>850</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R29" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="9" t="n">
         <v>0.000288799328436401</v>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="8" t="n">
         <v>6.65494104657795E-006</v>
       </c>
       <c r="T29" s="4" t="s">
@@ -1973,53 +1954,53 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="n">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="n">
         <v>900</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R30" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="9" t="n">
         <v>0.000410548134299484</v>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="8" t="n">
         <v>3.38984698045445E-006</v>
       </c>
       <c r="T30" s="4" t="s">
@@ -2027,53 +2008,53 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="n">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="n">
         <v>950</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="H31" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R31" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="9" t="n">
         <v>0.000518465989450182</v>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="8" t="n">
         <v>1.93326301150915E-005</v>
       </c>
       <c r="T31" s="4" t="s">
@@ -2081,53 +2062,53 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="2" t="n">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="9" t="n">
         <v>0.000655212675065719</v>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="8" t="n">
         <v>6.77806215585227E-006</v>
       </c>
       <c r="T32" s="4" t="s">
@@ -2135,53 +2116,53 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="2" t="n">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R33" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="9" t="n">
         <v>0.000660230202137926</v>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="S33" s="8" t="n">
         <v>5.02076199344431E-006</v>
       </c>
       <c r="T33" s="4" t="s">
@@ -2208,7 +2189,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:J33 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2217,67 +2198,67 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="8" t="n">
         <v>2.2E-005</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="8" t="n">
         <v>3.1E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="8" t="n">
         <v>6.9E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="8" t="n">
         <v>6E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="8" t="n">
         <v>0.000103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="8" t="n">
         <v>0.00014</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="8" t="n">
         <v>0.000265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="8" t="n">
         <v>0.00025</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="8" t="n">
         <v>0.00023</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="8" t="n">
         <v>0.000327</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="8" t="n">
         <v>0.000413</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="8" t="n">
         <v>0.000522</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="8" t="n">
         <v>0.000526</v>
       </c>
     </row>
